--- a/tumlknexpectimax/excel_data/input_data_its_munich_rokkas.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_munich_rokkas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -1283,11 +1283,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="162449920"/>
-        <c:axId val="199136896"/>
+        <c:axId val="106297344"/>
+        <c:axId val="104577216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162449920"/>
+        <c:axId val="106297344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199136896"/>
+        <c:crossAx val="104577216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199136896"/>
+        <c:axId val="104577216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162449920"/>
+        <c:crossAx val="106297344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1890,11 +1890,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="170038784"/>
-        <c:axId val="208797696"/>
+        <c:axId val="160371200"/>
+        <c:axId val="104993280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170038784"/>
+        <c:axId val="160371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208797696"/>
+        <c:crossAx val="104993280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,7 +1931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208797696"/>
+        <c:axId val="104993280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170038784"/>
+        <c:crossAx val="160371200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2013,7 +2013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2154,11 +2153,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132268032"/>
-        <c:axId val="208800000"/>
+        <c:axId val="160292864"/>
+        <c:axId val="160179328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132268032"/>
+        <c:axId val="160292864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208800000"/>
+        <c:crossAx val="160179328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2176,7 +2175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208800000"/>
+        <c:axId val="160179328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,14 +2198,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132268032"/>
+        <c:crossAx val="160292864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2748,11 +2746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132271104"/>
-        <c:axId val="208801728"/>
+        <c:axId val="160373760"/>
+        <c:axId val="160181056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132271104"/>
+        <c:axId val="160373760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208801728"/>
+        <c:crossAx val="160181056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2770,7 +2768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208801728"/>
+        <c:axId val="160181056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,7 +2779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132271104"/>
+        <c:crossAx val="160373760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2822,7 +2820,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2856,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2899,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2940,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16358,7 +16356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>

--- a/tumlknexpectimax/excel_data/input_data_its_munich_rokkas.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_munich_rokkas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="765" windowWidth="13680" windowHeight="11130" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -793,6 +793,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -871,7 +872,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>60163.214483090531</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>108181.99766751831</c:v>
@@ -886,7 +887,7 @@
                   <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>60163.214483090531</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>108181.99766751831</c:v>
@@ -987,7 +988,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3844.3769660028456</c:v>
@@ -1002,7 +1003,7 @@
                   <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3844.3769660028456</c:v>
@@ -1017,13 +1018,13 @@
                   <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7526.1810909611158</c:v>
+                  <c:v>16649.727205824103</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3663.5010909611156</c:v>
+                  <c:v>1452.7127519276221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1113,7 @@
                   <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000</c:v>
+                  <c:v>109000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19368</c:v>
@@ -1228,7 +1229,7 @@
                   <c:v>75260</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229768</c:v>
+                  <c:v>211820</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>196568</c:v>
@@ -1249,7 +1250,7 @@
                   <c:v>78082</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213082</c:v>
+                  <c:v>153082</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>219632</c:v>
@@ -1276,11 +1277,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61089792"/>
-        <c:axId val="41423936"/>
+        <c:axId val="85642240"/>
+        <c:axId val="82517312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61089792"/>
+        <c:axId val="85642240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,13 +1303,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41423936"/>
+        <c:crossAx val="82517312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41423936"/>
+        <c:axId val="82517312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,19 +1341,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61089792"/>
+        <c:crossAx val="85642240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1396,6 +1400,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1474,7 +1479,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>60163.214483090531</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>108181.99766751831</c:v>
@@ -1489,7 +1494,7 @@
                   <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>60163.214483090531</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>108181.99766751831</c:v>
@@ -1590,7 +1595,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3844.3769660028456</c:v>
@@ -1605,7 +1610,7 @@
                   <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3844.3769660028456</c:v>
@@ -1620,13 +1625,13 @@
                   <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7526.1810909611158</c:v>
+                  <c:v>16649.727205824103</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3663.5010909611156</c:v>
+                  <c:v>1452.7127519276221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,7 +1720,7 @@
                   <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000</c:v>
+                  <c:v>109000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19368</c:v>
@@ -1831,7 +1836,7 @@
                   <c:v>75260</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229768</c:v>
+                  <c:v>211820</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>196568</c:v>
@@ -1852,7 +1857,7 @@
                   <c:v>78082</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213082</c:v>
+                  <c:v>153082</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>219632</c:v>
@@ -1879,11 +1884,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61894656"/>
-        <c:axId val="41426240"/>
+        <c:axId val="86844928"/>
+        <c:axId val="86771392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61894656"/>
+        <c:axId val="86844928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,13 +1910,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41426240"/>
+        <c:crossAx val="86771392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1919,7 +1925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41426240"/>
+        <c:axId val="86771392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,19 +1948,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61894656"/>
+        <c:crossAx val="86844928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2081,46 +2089,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>19283.042119999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>43709.823689999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>44248.422050000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762709999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>11938.91869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>50983.716119999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>47726.863400000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>48220.289169999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>37682.867709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>44827.872100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>12139.81493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>47419.574760000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>50088.476920000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,11 +2148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61579264"/>
-        <c:axId val="62080704"/>
+        <c:axId val="87515136"/>
+        <c:axId val="86773696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61579264"/>
+        <c:axId val="87515136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62080704"/>
+        <c:crossAx val="86773696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62080704"/>
+        <c:axId val="86773696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61579264"/>
+        <c:crossAx val="87515136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2229,7 +2237,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2273,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2316,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:V15"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,7 +2766,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>73</v>
       </c>
@@ -2817,10 +2825,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S3" s="10">
-        <v>108181.99766751831</v>
+        <v>60163.214483090531</v>
       </c>
       <c r="T3" s="10">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="U3" s="10">
         <v>7048</v>
@@ -2829,15 +2837,14 @@
         <v>382544</v>
       </c>
       <c r="W3" s="10">
-        <f>SUM(U3,V3)</f>
         <v>389592</v>
       </c>
       <c r="X3" s="11">
         <f>S3+T3+U3+V3</f>
-        <v>503426.06612425408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>451295.0492430462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
@@ -2907,15 +2914,14 @@
         <v>78284</v>
       </c>
       <c r="W4" s="10">
-        <f t="shared" ref="W4:W15" si="0">SUM(U4,V4)</f>
         <v>89468</v>
       </c>
       <c r="X4" s="11">
-        <f t="shared" ref="X4:X14" si="1">S4+T4+U4+V4</f>
+        <f t="shared" ref="X4:X14" si="0">S4+T4+U4+V4</f>
         <v>201494.37463352116</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
@@ -2981,15 +2987,14 @@
         <v>75260</v>
       </c>
       <c r="W5" s="10">
+        <v>91260</v>
+      </c>
+      <c r="X5" s="11">
         <f t="shared" si="0"/>
-        <v>91260</v>
-      </c>
-      <c r="X5" s="11">
-        <f t="shared" si="1"/>
         <v>162537.48553270852</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -3053,21 +3058,20 @@
         <v>4383.6369516535042</v>
       </c>
       <c r="U6" s="10">
-        <v>16000</v>
+        <v>109000</v>
       </c>
       <c r="V6" s="10">
-        <v>229768</v>
+        <v>211820</v>
       </c>
       <c r="W6" s="10">
+        <v>320820</v>
+      </c>
+      <c r="X6" s="11">
         <f t="shared" si="0"/>
-        <v>245768</v>
-      </c>
-      <c r="X6" s="11">
-        <f t="shared" si="1"/>
-        <v>317045.48553270852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>392097.48553270852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>69</v>
       </c>
@@ -3137,15 +3141,14 @@
         <v>196568</v>
       </c>
       <c r="W7" s="10">
+        <v>215936</v>
+      </c>
+      <c r="X7" s="11">
         <f t="shared" si="0"/>
-        <v>215936</v>
-      </c>
-      <c r="X7" s="11">
-        <f t="shared" si="1"/>
         <v>327962.37463352119</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
@@ -3201,10 +3204,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S8" s="10">
-        <v>108181.99766751831</v>
+        <v>60163.214483090531</v>
       </c>
       <c r="T8" s="10">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="U8" s="10">
         <v>7404</v>
@@ -3213,15 +3216,14 @@
         <v>399960</v>
       </c>
       <c r="W8" s="10">
+        <v>407364</v>
+      </c>
+      <c r="X8" s="11">
         <f t="shared" si="0"/>
-        <v>407364</v>
-      </c>
-      <c r="X8" s="11">
-        <f t="shared" si="1"/>
-        <v>521198.06612425408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>469067.0492430462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
@@ -3289,15 +3291,14 @@
         <v>76562</v>
       </c>
       <c r="W9" s="10">
+        <v>95930</v>
+      </c>
+      <c r="X9" s="11">
         <f t="shared" si="0"/>
-        <v>95930</v>
-      </c>
-      <c r="X9" s="11">
-        <f t="shared" si="1"/>
         <v>207956.37463352116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>72</v>
       </c>
@@ -3364,15 +3365,14 @@
         <v>75260</v>
       </c>
       <c r="W10" s="10">
+        <v>104260</v>
+      </c>
+      <c r="X10" s="11">
         <f t="shared" si="0"/>
-        <v>104260</v>
-      </c>
-      <c r="X10" s="11">
-        <f t="shared" si="1"/>
         <v>175537.48553270852</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>74</v>
       </c>
@@ -3441,15 +3441,14 @@
         <v>216582</v>
       </c>
       <c r="W11" s="15">
+        <v>225214</v>
+      </c>
+      <c r="X11" s="16">
         <f t="shared" si="0"/>
-        <v>225214</v>
-      </c>
-      <c r="X11" s="16">
-        <f t="shared" si="1"/>
         <v>317641.51949214807</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>75</v>
       </c>
@@ -3517,15 +3516,14 @@
         <v>78082</v>
       </c>
       <c r="W12" s="10">
+        <v>97114</v>
+      </c>
+      <c r="X12" s="11">
         <f t="shared" si="0"/>
-        <v>97114</v>
-      </c>
-      <c r="X12" s="11">
-        <f t="shared" si="1"/>
         <v>190053.9800377739</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>76</v>
       </c>
@@ -3585,24 +3583,23 @@
         <v>89276.478946812786</v>
       </c>
       <c r="T13" s="10">
-        <v>7526.1810909611158</v>
+        <v>16649.727205824103</v>
       </c>
       <c r="U13" s="10">
         <v>35064</v>
       </c>
       <c r="V13" s="10">
-        <v>213082</v>
+        <v>153082</v>
       </c>
       <c r="W13" s="10">
+        <v>188146</v>
+      </c>
+      <c r="X13" s="11">
         <f t="shared" si="0"/>
-        <v>248146</v>
-      </c>
-      <c r="X13" s="11">
-        <f t="shared" si="1"/>
-        <v>344948.66003777389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>294072.20615263691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>77</v>
       </c>
@@ -3670,15 +3667,14 @@
         <v>219632</v>
       </c>
       <c r="W14" s="15">
+        <v>245160</v>
+      </c>
+      <c r="X14" s="16">
         <f t="shared" si="0"/>
-        <v>245160</v>
-      </c>
-      <c r="X14" s="16">
-        <f t="shared" si="1"/>
         <v>337587.51949214807</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
@@ -3738,7 +3734,7 @@
         <v>89276.478946812786</v>
       </c>
       <c r="T15" s="10">
-        <v>3663.5010909611156</v>
+        <v>1452.7127519276221</v>
       </c>
       <c r="U15" s="10">
         <v>35064</v>
@@ -3747,12 +3743,11 @@
         <v>78082</v>
       </c>
       <c r="W15" s="10">
-        <f t="shared" si="0"/>
         <v>113146</v>
       </c>
       <c r="X15" s="11">
-        <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>206085.9800377739</v>
+        <f t="shared" ref="X15" si="1">SUM(S15:V15)</f>
+        <v>203875.19169874041</v>
       </c>
     </row>
     <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
@@ -3840,7 +3835,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,117 +3853,116 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="11">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="11">
-        <v>19283.042118970367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19283.042119999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="11">
-        <v>43709.823692218881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43709.823689999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="11">
-        <v>44248.4220525376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44248.422050000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="11">
-        <v>10540.776519765759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19212.762709999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="11">
-        <v>11938.918689039821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11938.91869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="11">
-        <v>50983.71612182937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50983.716119999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="11">
-        <v>47726.863400003029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47726.863400000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="11">
-        <v>48220.289169209609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48220.289169999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="11">
-        <v>37682.867713520049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37682.867709999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="11">
-        <v>44827.8721002112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44827.872100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="11">
-        <v>12139.814930199653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12139.81493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="11">
-        <v>47419.574760442287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47419.574760000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="11">
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
     </row>
   </sheetData>
@@ -4128,31 +4122,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V2" s="10">
         <f>O2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="W2" s="10">
         <f>P2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="X2" s="10">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="Y2" s="10">
         <f>R2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="Z2" s="10">
         <f>S2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AA2" s="10">
         <f>T2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AB2" s="10">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -4160,27 +4154,27 @@
       </c>
       <c r="AC2" s="11">
         <f>V2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AD2" s="11">
         <f>W2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AE2" s="11">
         <f>X2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AF2" s="11">
         <f>Y2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AG2" s="11">
         <f>Z2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AH2" s="11">
         <f>AA2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4230,31 +4224,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V3" s="10">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920599649</v>
+        <v>-48372.476920000001</v>
       </c>
       <c r="W3" s="10">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920599649</v>
+        <v>-48288.476920000001</v>
       </c>
       <c r="X3" s="10">
         <f t="shared" si="1"/>
-        <v>-47652.476920599649</v>
+        <v>-47652.476920000001</v>
       </c>
       <c r="Y3" s="10">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920599649</v>
+        <v>-48552.476920000001</v>
       </c>
       <c r="Z3" s="10">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920599649</v>
+        <v>-48480.476920000001</v>
       </c>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920599649</v>
+        <v>-47928.476920000001</v>
       </c>
       <c r="AB3" s="10">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -4262,27 +4256,27 @@
       </c>
       <c r="AC3" s="11">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018726954</v>
+        <v>-43974.979018181817</v>
       </c>
       <c r="AD3" s="11">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615382363314</v>
+        <v>-43898.615381818185</v>
       </c>
       <c r="AE3" s="11">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433564181498</v>
+        <v>-43320.433563636361</v>
       </c>
       <c r="AF3" s="11">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615382363314</v>
+        <v>-44138.615381818185</v>
       </c>
       <c r="AG3" s="11">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.16083690877</v>
+        <v>-44073.160836363633</v>
       </c>
       <c r="AH3" s="11">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342655090586</v>
+        <v>-43571.342654545457</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4341,31 +4335,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V4" s="10">
         <f t="shared" si="8"/>
-        <v>-47736.476920599649</v>
+        <v>-47736.476920000001</v>
       </c>
       <c r="W4" s="10">
         <f t="shared" si="9"/>
-        <v>-47616.476920599649</v>
+        <v>-47616.476920000001</v>
       </c>
       <c r="X4" s="10">
         <f t="shared" si="1"/>
-        <v>-45444.476920599649</v>
+        <v>-45444.476920000001</v>
       </c>
       <c r="Y4" s="10">
         <f t="shared" si="10"/>
-        <v>-48000.476920599649</v>
+        <v>-48000.476920000001</v>
       </c>
       <c r="Z4" s="10">
         <f t="shared" si="11"/>
-        <v>-47892.476920599649</v>
+        <v>-47892.476920000001</v>
       </c>
       <c r="AA4" s="10">
         <f t="shared" si="12"/>
-        <v>-45936.476920599649</v>
+        <v>-45936.476920000001</v>
       </c>
       <c r="AB4" s="10">
         <f t="shared" si="13"/>
@@ -4373,27 +4367,27 @@
       </c>
       <c r="AC4" s="11">
         <f t="shared" si="14"/>
-        <v>-39451.633818677394</v>
+        <v>-39451.633818181814</v>
       </c>
       <c r="AD4" s="11">
         <f t="shared" si="15"/>
-        <v>-39352.460264958383</v>
+        <v>-39352.460264462803</v>
       </c>
       <c r="AE4" s="11">
         <f t="shared" si="16"/>
-        <v>-37557.418942644334</v>
+        <v>-37557.418942148754</v>
       </c>
       <c r="AF4" s="11">
         <f t="shared" si="17"/>
-        <v>-39669.81563685921</v>
+        <v>-39669.81563636363</v>
       </c>
       <c r="AG4" s="11">
         <f t="shared" si="18"/>
-        <v>-39580.5594385121</v>
+        <v>-39580.559438016528</v>
       </c>
       <c r="AH4" s="11">
         <f t="shared" si="19"/>
-        <v>-37964.03051289227</v>
+        <v>-37964.03051239669</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4453,31 +4447,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V5" s="10">
         <f t="shared" si="8"/>
-        <v>-46908.476920599649</v>
+        <v>-46908.476920000001</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="9"/>
-        <v>-46572.476920599649</v>
+        <v>-46572.476920000001</v>
       </c>
       <c r="X5" s="10">
         <f t="shared" si="1"/>
-        <v>-41052.476920599649</v>
+        <v>-41052.476920000001</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="10"/>
-        <v>-47244.476920599649</v>
+        <v>-47244.476920000001</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="11"/>
-        <v>-46932.476920599649</v>
+        <v>-46932.476920000001</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="12"/>
-        <v>-41976.476920599649</v>
+        <v>-41976.476920000001</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="13"/>
@@ -4485,27 +4479,27 @@
       </c>
       <c r="AC5" s="11">
         <f t="shared" si="14"/>
-        <v>-35243.03299819657</v>
+        <v>-35243.032997746042</v>
       </c>
       <c r="AD5" s="11">
         <f t="shared" si="15"/>
-        <v>-34990.591225093638</v>
+        <v>-34990.591224643118</v>
       </c>
       <c r="AE5" s="11">
         <f t="shared" si="16"/>
-        <v>-30843.333524116933</v>
+        <v>-30843.333523666406</v>
       </c>
       <c r="AF5" s="11">
         <f t="shared" si="17"/>
-        <v>-35495.474771299501</v>
+        <v>-35495.474770848974</v>
       </c>
       <c r="AG5" s="11">
         <f t="shared" si="18"/>
-        <v>-35261.064553418211</v>
+        <v>-35261.064552967684</v>
       </c>
       <c r="AH5" s="11">
         <f t="shared" si="19"/>
-        <v>-31537.54840014999</v>
+        <v>-31537.548399699466</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4565,31 +4559,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V6" s="10">
         <f t="shared" si="8"/>
-        <v>-45744.476920599649</v>
+        <v>-45744.476920000001</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="9"/>
-        <v>-45132.476920599649</v>
+        <v>-45132.476920000001</v>
       </c>
       <c r="X6" s="10">
         <f t="shared" si="1"/>
-        <v>-32556.476920599649</v>
+        <v>-32556.476920000001</v>
       </c>
       <c r="Y6" s="10">
         <f t="shared" si="10"/>
-        <v>-46212.476920599649</v>
+        <v>-46212.476920000001</v>
       </c>
       <c r="Z6" s="10">
         <f t="shared" si="11"/>
-        <v>-45648.476920599649</v>
+        <v>-45648.476920000001</v>
       </c>
       <c r="AA6" s="10">
         <f t="shared" si="12"/>
-        <v>-34320.476920599649</v>
+        <v>-34320.476920000001</v>
       </c>
       <c r="AB6" s="10">
         <f t="shared" si="13"/>
@@ -4597,27 +4591,27 @@
       </c>
       <c r="AC6" s="11">
         <f t="shared" si="14"/>
-        <v>-31244.093245406486</v>
+        <v>-31244.093244996919</v>
       </c>
       <c r="AD6" s="11">
         <f t="shared" si="15"/>
-        <v>-30826.089010723063</v>
+        <v>-30826.089010313495</v>
       </c>
       <c r="AE6" s="11">
         <f t="shared" si="16"/>
-        <v>-22236.511796051938</v>
+        <v>-22236.511795642371</v>
       </c>
       <c r="AF6" s="11">
         <f t="shared" si="17"/>
-        <v>-31563.743542517339</v>
+        <v>-31563.743542107772</v>
       </c>
       <c r="AG6" s="11">
         <f t="shared" si="18"/>
-        <v>-31178.523953691441</v>
+        <v>-31178.523953281874</v>
       </c>
       <c r="AH6" s="11">
         <f t="shared" si="19"/>
-        <v>-23441.347531315922</v>
+        <v>-23441.347530906354</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4677,31 +4671,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V7" s="10">
         <f t="shared" si="8"/>
-        <v>-44160.476920599649</v>
+        <v>-44160.476920000001</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="9"/>
-        <v>-43092.476920599649</v>
+        <v>-43092.476920000001</v>
       </c>
       <c r="X7" s="10">
         <f t="shared" si="1"/>
-        <v>-16260.476920599649</v>
+        <v>-16260.476920000001</v>
       </c>
       <c r="Y7" s="10">
         <f t="shared" si="10"/>
-        <v>-44760.476920599649</v>
+        <v>-44760.476920000001</v>
       </c>
       <c r="Z7" s="10">
         <f t="shared" si="11"/>
-        <v>-43812.476920599649</v>
+        <v>-43812.476920000001</v>
       </c>
       <c r="AA7" s="10">
         <f t="shared" si="12"/>
-        <v>-19668.476920599649</v>
+        <v>-19668.476920000001</v>
       </c>
       <c r="AB7" s="10">
         <f t="shared" si="13"/>
@@ -4709,27 +4703,27 @@
       </c>
       <c r="AC7" s="11">
         <f t="shared" si="14"/>
-        <v>-27420.181756462011</v>
+        <v>-27420.181756089674</v>
       </c>
       <c r="AD7" s="11">
         <f t="shared" si="15"/>
-        <v>-26757.037783434833</v>
+        <v>-26757.037783062497</v>
       </c>
       <c r="AE7" s="11">
         <f t="shared" si="16"/>
-        <v>-10096.476843111588</v>
+        <v>-10096.476842739254</v>
       </c>
       <c r="AF7" s="11">
         <f t="shared" si="17"/>
-        <v>-27792.734550297504</v>
+        <v>-27792.734549925168</v>
       </c>
       <c r="AG7" s="11">
         <f t="shared" si="18"/>
-        <v>-27204.101136037425</v>
+        <v>-27204.101135665089</v>
       </c>
       <c r="AH7" s="11">
         <f t="shared" si="19"/>
-        <v>-12212.576712097187</v>
+        <v>-12212.576711724852</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4789,31 +4783,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V8" s="10">
         <f t="shared" si="8"/>
-        <v>-41976.476920599649</v>
+        <v>-41976.476920000001</v>
       </c>
       <c r="W8" s="10">
         <f t="shared" si="9"/>
-        <v>-40176.476920599649</v>
+        <v>-40176.476920000001</v>
       </c>
       <c r="X8" s="10">
         <f t="shared" si="1"/>
-        <v>13643.523079400351</v>
+        <v>13643.523079999999</v>
       </c>
       <c r="Y8" s="10">
         <f t="shared" si="10"/>
-        <v>-42828.476920599649</v>
+        <v>-42828.476920000001</v>
       </c>
       <c r="Z8" s="10">
         <f t="shared" si="11"/>
-        <v>-41172.476920599649</v>
+        <v>-41172.476920000001</v>
       </c>
       <c r="AA8" s="10">
         <f t="shared" si="12"/>
-        <v>7247.523079400351</v>
+        <v>7247.523079999999</v>
       </c>
       <c r="AB8" s="10">
         <f t="shared" si="13"/>
@@ -4821,27 +4815,27 @@
       </c>
       <c r="AC8" s="11">
         <f t="shared" si="14"/>
-        <v>-23694.626897182559</v>
+        <v>-23694.626896844075</v>
       </c>
       <c r="AD8" s="11">
         <f t="shared" si="15"/>
-        <v>-22678.573823085761</v>
+        <v>-22678.573822747276</v>
       </c>
       <c r="AE8" s="11">
         <f t="shared" si="16"/>
-        <v>7701.4130924085284</v>
+        <v>7701.4130927470142</v>
       </c>
       <c r="AF8" s="11">
         <f t="shared" si="17"/>
-        <v>-24175.558685588378</v>
+        <v>-24175.558685249893</v>
       </c>
       <c r="AG8" s="11">
         <f t="shared" si="18"/>
-        <v>-23240.789857419324</v>
+        <v>-23240.789857080836</v>
       </c>
       <c r="AH8" s="11">
         <f t="shared" si="19"/>
-        <v>4091.0378357845698</v>
+        <v>4091.0378361230555</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4900,31 +4894,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V9" s="10">
         <f t="shared" si="8"/>
-        <v>-39000.476920599649</v>
+        <v>-39000.476920000001</v>
       </c>
       <c r="W9" s="10">
         <f t="shared" si="9"/>
-        <v>-36072.476920599649</v>
+        <v>-36072.476920000001</v>
       </c>
       <c r="X9" s="10">
         <f t="shared" si="1"/>
-        <v>64451.523079400351</v>
+        <v>64451.523079999999</v>
       </c>
       <c r="Y9" s="10">
         <f t="shared" si="10"/>
-        <v>-40128.476920599649</v>
+        <v>-40128.476920000001</v>
       </c>
       <c r="Z9" s="10">
         <f t="shared" si="11"/>
-        <v>-37512.476920599649</v>
+        <v>-37512.476920000001</v>
       </c>
       <c r="AA9" s="10">
         <f t="shared" si="12"/>
-        <v>52979.523079400351</v>
+        <v>52979.523079999999</v>
       </c>
       <c r="AB9" s="10">
         <f t="shared" si="13"/>
@@ -4932,27 +4926,27 @@
       </c>
       <c r="AC9" s="11">
         <f t="shared" si="14"/>
-        <v>-20013.411346675013</v>
+        <v>-20013.411346367298</v>
       </c>
       <c r="AD9" s="11">
         <f t="shared" si="15"/>
-        <v>-18510.884376495505</v>
+        <v>-18510.884376187791</v>
       </c>
       <c r="AE9" s="11">
         <f t="shared" si="16"/>
-        <v>33073.822300528031</v>
+        <v>33073.822300835745</v>
       </c>
       <c r="AF9" s="11">
         <f t="shared" si="17"/>
-        <v>-20592.253704039249</v>
+        <v>-20592.253703731534</v>
       </c>
       <c r="AG9" s="11">
         <f t="shared" si="18"/>
-        <v>-19249.83206674772</v>
+        <v>-19249.832066440009</v>
       </c>
       <c r="AH9" s="11">
         <f t="shared" si="19"/>
-        <v>27186.872368185366</v>
+        <v>27186.872368493081</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5011,31 +5005,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V10" s="10">
         <f t="shared" si="8"/>
-        <v>-34944.476920599649</v>
+        <v>-34944.476920000001</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="9"/>
-        <v>-30312.476920599649</v>
+        <v>-30312.476920000001</v>
       </c>
       <c r="X10" s="10">
         <f t="shared" si="1"/>
-        <v>138143.52307940036</v>
+        <v>138143.52308000001</v>
       </c>
       <c r="Y10" s="10">
         <f t="shared" si="10"/>
-        <v>-36480.476920599649</v>
+        <v>-36480.476920000001</v>
       </c>
       <c r="Z10" s="10">
         <f t="shared" si="11"/>
-        <v>-32328.476920599649</v>
+        <v>-32328.476920000001</v>
       </c>
       <c r="AA10" s="10">
         <f t="shared" si="12"/>
-        <v>119291.52307940036</v>
+        <v>119291.52308</v>
       </c>
       <c r="AB10" s="10">
         <f t="shared" si="13"/>
@@ -5043,27 +5037,27 @@
       </c>
       <c r="AC10" s="11">
         <f t="shared" si="14"/>
-        <v>-16301.856381028425</v>
+        <v>-16301.856380748684</v>
       </c>
       <c r="AD10" s="11">
         <f t="shared" si="15"/>
-        <v>-14140.994195896941</v>
+        <v>-14140.994195617201</v>
       </c>
       <c r="AE10" s="11">
         <f t="shared" si="16"/>
-        <v>64444.973044713872</v>
+        <v>64444.973044993611</v>
       </c>
       <c r="AF10" s="11">
         <f t="shared" si="17"/>
-        <v>-17018.411717030576</v>
+        <v>-17018.411716750834</v>
       </c>
       <c r="AG10" s="11">
         <f t="shared" si="18"/>
-        <v>-15081.473074399764</v>
+        <v>-15081.473074120024</v>
       </c>
       <c r="AH10" s="11">
         <f t="shared" si="19"/>
-        <v>55650.375912999982</v>
+        <v>55650.375913279713</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5122,31 +5116,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V11" s="10">
         <f t="shared" si="8"/>
-        <v>-29472.476920599649</v>
+        <v>-29472.476920000001</v>
       </c>
       <c r="W11" s="10">
         <f t="shared" si="9"/>
-        <v>-22344.476920599649</v>
+        <v>-22344.476920000001</v>
       </c>
       <c r="X11" s="10">
         <f t="shared" si="1"/>
-        <v>216887.52307940036</v>
+        <v>216887.52308000001</v>
       </c>
       <c r="Y11" s="10">
         <f t="shared" si="10"/>
-        <v>-31560.476920599649</v>
+        <v>-31560.476920000001</v>
       </c>
       <c r="Z11" s="10">
         <f t="shared" si="11"/>
-        <v>-25152.476920599649</v>
+        <v>-25152.476920000001</v>
       </c>
       <c r="AA11" s="10">
         <f t="shared" si="12"/>
-        <v>190175.52307940036</v>
+        <v>190175.52308000001</v>
       </c>
       <c r="AB11" s="10">
         <f t="shared" si="13"/>
@@ -5154,27 +5148,27 @@
       </c>
       <c r="AC11" s="11">
         <f t="shared" si="14"/>
-        <v>-12499.207269564333</v>
+        <v>-12499.207269310022</v>
       </c>
       <c r="AD11" s="11">
         <f t="shared" si="15"/>
-        <v>-9476.2394458052604</v>
+        <v>-9476.2394455509511</v>
       </c>
       <c r="AE11" s="11">
         <f t="shared" si="16"/>
-        <v>91981.481992680987</v>
+        <v>91981.481992935311</v>
       </c>
       <c r="AF11" s="11">
         <f t="shared" si="17"/>
-        <v>-13384.72309672608</v>
+        <v>-13384.723096471771</v>
       </c>
       <c r="AG11" s="11">
         <f t="shared" si="18"/>
-        <v>-10667.105558195199</v>
+        <v>-10667.105557940889</v>
       </c>
       <c r="AH11" s="11">
         <f t="shared" si="19"/>
-        <v>80652.986410715181</v>
+        <v>80652.98641096949</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5234,31 +5228,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V12" s="10">
         <f t="shared" si="8"/>
-        <v>-22128.476920599649</v>
+        <v>-22128.476920000001</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="9"/>
-        <v>-11508.476920599649</v>
+        <v>-11508.476920000001</v>
       </c>
       <c r="X12" s="10">
         <f t="shared" si="1"/>
-        <v>264167.52307940036</v>
+        <v>264167.52308000001</v>
       </c>
       <c r="Y12" s="10">
         <f t="shared" si="10"/>
-        <v>-24960.476920599649</v>
+        <v>-24960.476920000001</v>
       </c>
       <c r="Z12" s="10">
         <f t="shared" si="11"/>
-        <v>-15384.476920599649</v>
+        <v>-15384.476920000001</v>
       </c>
       <c r="AA12" s="10">
         <f t="shared" si="12"/>
-        <v>232727.52307940036</v>
+        <v>232727.52308000001</v>
       </c>
       <c r="AB12" s="10">
         <f t="shared" si="13"/>
@@ -5266,27 +5260,27 @@
       </c>
       <c r="AC12" s="11">
         <f t="shared" si="14"/>
-        <v>-8531.4857820334582</v>
+        <v>-8531.4857818022683</v>
       </c>
       <c r="AD12" s="11">
         <f t="shared" si="15"/>
-        <v>-4437.0160482918336</v>
+        <v>-4437.0160480606437</v>
       </c>
       <c r="AE12" s="11">
         <f t="shared" si="16"/>
-        <v>101848.01580848369</v>
+        <v>101848.01580871489</v>
       </c>
       <c r="AF12" s="11">
         <f t="shared" si="17"/>
-        <v>-9623.3443776978911</v>
+        <v>-9623.3443774667012</v>
       </c>
       <c r="AG12" s="11">
         <f t="shared" si="18"/>
-        <v>-5931.3818381206975</v>
+        <v>-5931.3818378895076</v>
       </c>
       <c r="AH12" s="11">
         <f t="shared" si="19"/>
-        <v>89726.534788819219</v>
+        <v>89726.534789050405</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5345,31 +5339,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V13" s="10">
         <f t="shared" si="8"/>
-        <v>-12480.476920599649</v>
+        <v>-12480.476920000001</v>
       </c>
       <c r="W13" s="10">
         <f t="shared" si="9"/>
-        <v>3083.523079400351</v>
+        <v>3083.523079999999</v>
       </c>
       <c r="X13" s="10">
         <f t="shared" si="1"/>
-        <v>274307.52307940036</v>
+        <v>274307.52308000001</v>
       </c>
       <c r="Y13" s="10">
         <f t="shared" si="10"/>
-        <v>-16272.476920599649</v>
+        <v>-16272.476920000001</v>
       </c>
       <c r="Z13" s="10">
         <f t="shared" si="11"/>
-        <v>-2268.476920599649</v>
+        <v>-2268.476920000001</v>
       </c>
       <c r="AA13" s="10">
         <f t="shared" si="12"/>
-        <v>241859.52307940036</v>
+        <v>241859.52308000001</v>
       </c>
       <c r="AB13" s="10">
         <f t="shared" si="13"/>
@@ -5377,27 +5371,27 @@
       </c>
       <c r="AC13" s="11">
         <f t="shared" si="14"/>
-        <v>-4374.3310232884887</v>
+        <v>-4374.3310230783154</v>
       </c>
       <c r="AD13" s="11">
         <f t="shared" si="15"/>
-        <v>1080.7560282398995</v>
+        <v>1080.7560284500726</v>
       </c>
       <c r="AE13" s="11">
         <f t="shared" si="16"/>
-        <v>96143.113421181028</v>
+        <v>96143.113421391201</v>
       </c>
       <c r="AF13" s="11">
         <f t="shared" si="17"/>
-        <v>-5703.4038901219283</v>
+        <v>-5703.403889911755</v>
       </c>
       <c r="AG13" s="11">
         <f t="shared" si="18"/>
-        <v>-795.08732178451146</v>
+        <v>-795.08732157433849</v>
       </c>
       <c r="AH13" s="11">
         <f t="shared" si="19"/>
-        <v>84770.287370808801</v>
+        <v>84770.287371018989</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5456,31 +5450,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V14" s="10">
         <f t="shared" si="8"/>
-        <v>143.52307940035098</v>
+        <v>143.52307999999903</v>
       </c>
       <c r="W14" s="10">
         <f t="shared" si="9"/>
-        <v>22127.523079400351</v>
+        <v>22127.523079999999</v>
       </c>
       <c r="X14" s="10">
         <f t="shared" si="1"/>
-        <v>274763.52307940036</v>
+        <v>274763.52308000001</v>
       </c>
       <c r="Y14" s="10">
         <f t="shared" si="10"/>
-        <v>-4896.476920599649</v>
+        <v>-4896.476920000001</v>
       </c>
       <c r="Z14" s="10">
         <f t="shared" si="11"/>
-        <v>14891.523079400351</v>
+        <v>14891.523079999999</v>
       </c>
       <c r="AA14" s="10">
         <f t="shared" si="12"/>
-        <v>242243.52307940036</v>
+        <v>242243.52308000001</v>
       </c>
       <c r="AB14" s="10">
         <f t="shared" si="13"/>
@@ -5488,27 +5482,27 @@
       </c>
       <c r="AC14" s="11">
         <f t="shared" si="14"/>
-        <v>45.730876149642263</v>
+        <v>45.730876340708612</v>
       </c>
       <c r="AD14" s="11">
         <f t="shared" si="15"/>
-        <v>7050.5107726941205</v>
+        <v>7050.5107728851872</v>
       </c>
       <c r="AE14" s="11">
         <f t="shared" si="16"/>
-        <v>87548.126035767767</v>
+        <v>87548.126035958834</v>
       </c>
       <c r="AF14" s="11">
         <f t="shared" si="17"/>
-        <v>-1560.1684451105548</v>
+        <v>-1560.1684449194884</v>
       </c>
       <c r="AG14" s="11">
         <f t="shared" si="18"/>
-        <v>4744.8981757419806</v>
+        <v>4744.8981759330472</v>
       </c>
       <c r="AH14" s="11">
         <f t="shared" si="19"/>
-        <v>77186.251843826962</v>
+        <v>77186.251844018043</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5567,31 +5561,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V15" s="10">
         <f t="shared" si="8"/>
-        <v>16223.523079400351</v>
+        <v>16223.523079999999</v>
       </c>
       <c r="W15" s="10">
         <f t="shared" si="9"/>
-        <v>46247.523079400351</v>
+        <v>46247.523079999999</v>
       </c>
       <c r="X15" s="10">
         <f t="shared" si="1"/>
-        <v>274847.52307940036</v>
+        <v>274847.52308000001</v>
       </c>
       <c r="Y15" s="10">
         <f t="shared" si="10"/>
-        <v>9587.523079400351</v>
+        <v>9587.523079999999</v>
       </c>
       <c r="Z15" s="10">
         <f t="shared" si="11"/>
-        <v>36587.523079400351</v>
+        <v>36587.523079999999</v>
       </c>
       <c r="AA15" s="10">
         <f t="shared" si="12"/>
-        <v>242327.52307940036</v>
+        <v>242327.52308000001</v>
       </c>
       <c r="AB15" s="10">
         <f t="shared" si="13"/>
@@ -5599,27 +5593,27 @@
       </c>
       <c r="AC15" s="11">
         <f t="shared" si="14"/>
-        <v>4699.3767499383421</v>
+        <v>4699.3767501120383</v>
       </c>
       <c r="AD15" s="11">
         <f t="shared" si="15"/>
-        <v>13396.260087152656</v>
+        <v>13396.260087326353</v>
       </c>
       <c r="AE15" s="11">
         <f t="shared" si="16"/>
-        <v>79613.537294959489</v>
+        <v>79613.537295133181</v>
       </c>
       <c r="AF15" s="11">
         <f t="shared" si="17"/>
-        <v>2777.1639260056818</v>
+        <v>2777.1639261793784</v>
       </c>
       <c r="AG15" s="11">
         <f t="shared" si="18"/>
-        <v>10598.102178896252</v>
+        <v>10598.102179069949</v>
       </c>
       <c r="AH15" s="11">
         <f t="shared" si="19"/>
-        <v>70193.6516659224</v>
+        <v>70193.651666096106</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5678,31 +5672,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V16" s="10">
         <f t="shared" si="8"/>
-        <v>36215.523079400351</v>
+        <v>36215.523079999999</v>
       </c>
       <c r="W16" s="10">
         <f t="shared" si="9"/>
-        <v>75275.523079400358</v>
+        <v>75275.523079999999</v>
       </c>
       <c r="X16" s="10">
         <f t="shared" si="1"/>
-        <v>274883.52307940036</v>
+        <v>274883.52308000001</v>
       </c>
       <c r="Y16" s="10">
         <f t="shared" si="10"/>
-        <v>27551.523079400351</v>
+        <v>27551.523079999999</v>
       </c>
       <c r="Z16" s="10">
         <f t="shared" si="11"/>
-        <v>62699.523079400351</v>
+        <v>62699.523079999999</v>
       </c>
       <c r="AA16" s="10">
         <f t="shared" si="12"/>
-        <v>242351.52307940036</v>
+        <v>242351.52308000001</v>
       </c>
       <c r="AB16" s="10">
         <f t="shared" si="13"/>
@@ -5710,27 +5704,27 @@
       </c>
       <c r="AC16" s="11">
         <f t="shared" si="14"/>
-        <v>9536.6791178492731</v>
+        <v>9536.6791180071796</v>
       </c>
       <c r="AD16" s="11">
         <f t="shared" si="15"/>
-        <v>19822.397911044751</v>
+        <v>19822.397911202654</v>
       </c>
       <c r="AE16" s="11">
         <f t="shared" si="16"/>
-        <v>72385.422920572717</v>
+        <v>72385.42292073062</v>
       </c>
       <c r="AF16" s="11">
         <f t="shared" si="17"/>
-        <v>7255.1771305413986</v>
+        <v>7255.1771306993051</v>
       </c>
       <c r="AG16" s="11">
         <f t="shared" si="18"/>
-        <v>16510.74405689149</v>
+        <v>16510.744057049396</v>
       </c>
       <c r="AH16" s="11">
         <f t="shared" si="19"/>
-        <v>63818.730555487324</v>
+        <v>63818.730555645234</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5789,31 +5783,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="8"/>
-        <v>60251.523079400351</v>
+        <v>60251.523079999999</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="9"/>
-        <v>108299.52307940036</v>
+        <v>108299.52308</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="1"/>
-        <v>274907.52307940036</v>
+        <v>274907.52308000001</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="10"/>
-        <v>49187.523079400351</v>
+        <v>49187.523079999999</v>
       </c>
       <c r="Z17" s="10">
         <f t="shared" si="11"/>
-        <v>92459.523079400358</v>
+        <v>92459.523079999999</v>
       </c>
       <c r="AA17" s="10">
         <f t="shared" si="12"/>
-        <v>242375.52307940036</v>
+        <v>242375.52308000001</v>
       </c>
       <c r="AB17" s="10">
         <f t="shared" si="13"/>
@@ -5821,27 +5815,27 @@
       </c>
       <c r="AC17" s="11">
         <f t="shared" si="14"/>
-        <v>14423.735587591096</v>
+        <v>14423.735587734647</v>
       </c>
       <c r="AD17" s="11">
         <f t="shared" si="15"/>
-        <v>25926.044775680661</v>
+        <v>25926.044775824208</v>
       </c>
       <c r="AE17" s="11">
         <f t="shared" si="16"/>
-        <v>65810.675336978238</v>
+        <v>65810.675337121793</v>
       </c>
       <c r="AF17" s="11">
         <f t="shared" si="17"/>
-        <v>11775.101953370673</v>
+        <v>11775.101953514224</v>
       </c>
       <c r="AG17" s="11">
         <f t="shared" si="18"/>
-        <v>22134.074713673112</v>
+        <v>22134.074713816663</v>
       </c>
       <c r="AH17" s="11">
         <f t="shared" si="19"/>
-        <v>58022.773186900609</v>
+        <v>58022.773187044164</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5900,31 +5894,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="8"/>
-        <v>87899.523079400358</v>
+        <v>87899.523079999999</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="9"/>
-        <v>143159.52307940036</v>
+        <v>143159.52308000001</v>
       </c>
       <c r="X18" s="10">
         <f t="shared" si="1"/>
-        <v>274919.52307940036</v>
+        <v>274919.52308000001</v>
       </c>
       <c r="Y18" s="10">
         <f t="shared" si="10"/>
-        <v>74075.523079400358</v>
+        <v>74075.523079999999</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" si="11"/>
-        <v>123827.52307940036</v>
+        <v>123827.52308</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" si="12"/>
-        <v>242387.52307940036</v>
+        <v>242387.52308000001</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" si="13"/>
@@ -5932,27 +5926,27 @@
       </c>
       <c r="AC18" s="11">
         <f t="shared" si="14"/>
-        <v>19129.497244136117</v>
+        <v>19129.497244266615</v>
       </c>
       <c r="AD18" s="11">
         <f t="shared" si="15"/>
-        <v>31155.683287899723</v>
+        <v>31155.683288030225</v>
       </c>
       <c r="AE18" s="11">
         <f t="shared" si="16"/>
-        <v>59830.498219609697</v>
+        <v>59830.498219740199</v>
       </c>
       <c r="AF18" s="11">
         <f t="shared" si="17"/>
-        <v>16120.992070973101</v>
+        <v>16120.992071103601</v>
       </c>
       <c r="AG18" s="11">
         <f t="shared" si="18"/>
-        <v>26948.476834804573</v>
+        <v>26948.476834935071</v>
       </c>
       <c r="AH18" s="11">
         <f t="shared" si="19"/>
-        <v>52750.587174084583</v>
+        <v>52750.587174215085</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6002,31 +5996,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V19" s="10">
         <f t="shared" si="8"/>
-        <v>117983.52307940036</v>
+        <v>117983.52308</v>
       </c>
       <c r="W19" s="10">
         <f t="shared" si="9"/>
-        <v>176759.52307940036</v>
+        <v>176759.52308000001</v>
       </c>
       <c r="X19" s="10">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y19" s="10">
         <f t="shared" si="10"/>
-        <v>101171.52307940036</v>
+        <v>101171.52308</v>
       </c>
       <c r="Z19" s="10">
         <f t="shared" si="11"/>
-        <v>154031.52307940036</v>
+        <v>154031.52308000001</v>
       </c>
       <c r="AA19" s="10">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB19" s="10">
         <f t="shared" si="13"/>
@@ -6034,27 +6028,27 @@
       </c>
       <c r="AC19" s="11">
         <f t="shared" si="14"/>
-        <v>23342.411059315404</v>
+        <v>23342.411059434038</v>
       </c>
       <c r="AD19" s="11">
         <f t="shared" si="15"/>
-        <v>34970.92931858974</v>
+        <v>34970.929318708375</v>
       </c>
       <c r="AE19" s="11">
         <f t="shared" si="16"/>
-        <v>54393.736153853795</v>
+        <v>54393.73615397243</v>
       </c>
       <c r="AF19" s="11">
         <f t="shared" si="17"/>
-        <v>20016.246485766333</v>
+        <v>20016.246485884967</v>
       </c>
       <c r="AG19" s="11">
         <f t="shared" si="18"/>
-        <v>30474.31568382747</v>
+        <v>30474.315683946108</v>
       </c>
       <c r="AH19" s="11">
         <f t="shared" si="19"/>
-        <v>47957.453385194603</v>
+        <v>47957.453385313238</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6104,31 +6098,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V20" s="10">
         <f t="shared" si="8"/>
-        <v>148739.52307940036</v>
+        <v>148739.52308000001</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="9"/>
-        <v>206135.52307940036</v>
+        <v>206135.52308000001</v>
       </c>
       <c r="X20" s="10">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y20" s="10">
         <f t="shared" si="10"/>
-        <v>128843.52307940036</v>
+        <v>128843.52308</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="11"/>
-        <v>180479.52307940036</v>
+        <v>180479.52308000001</v>
       </c>
       <c r="AA20" s="10">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB20" s="10">
         <f t="shared" si="13"/>
@@ -6136,27 +6130,27 @@
       </c>
       <c r="AC20" s="11">
         <f t="shared" si="14"/>
-        <v>26752.110632734504</v>
+        <v>26752.110632842356</v>
       </c>
       <c r="AD20" s="11">
         <f t="shared" si="15"/>
-        <v>37075.285738363731</v>
+        <v>37075.285738471583</v>
       </c>
       <c r="AE20" s="11">
         <f t="shared" si="16"/>
-        <v>49448.851048957993</v>
+        <v>49448.851049065845</v>
       </c>
       <c r="AF20" s="11">
         <f t="shared" si="17"/>
-        <v>23173.640148700786</v>
+        <v>23173.640148808638</v>
       </c>
       <c r="AG20" s="11">
         <f t="shared" si="18"/>
-        <v>32460.828624452944</v>
+        <v>32460.828624560796</v>
       </c>
       <c r="AH20" s="11">
         <f t="shared" si="19"/>
-        <v>43597.68489563145</v>
+        <v>43597.684895739309</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6206,31 +6200,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V21" s="10">
         <f t="shared" si="8"/>
-        <v>177995.52307940036</v>
+        <v>177995.52308000001</v>
       </c>
       <c r="W21" s="10">
         <f t="shared" si="9"/>
-        <v>229391.52307940036</v>
+        <v>229391.52308000001</v>
       </c>
       <c r="X21" s="10">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y21" s="10">
         <f t="shared" si="10"/>
-        <v>155171.52307940036</v>
+        <v>155171.52308000001</v>
       </c>
       <c r="Z21" s="10">
         <f t="shared" si="11"/>
-        <v>201443.52307940036</v>
+        <v>201443.52308000001</v>
       </c>
       <c r="AA21" s="10">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB21" s="10">
         <f t="shared" si="13"/>
@@ -6238,27 +6232,27 @@
       </c>
       <c r="AC21" s="11">
         <f t="shared" si="14"/>
-        <v>29103.690354834955</v>
+        <v>29103.690354933002</v>
       </c>
       <c r="AD21" s="11">
         <f t="shared" si="15"/>
-        <v>37507.347051356715</v>
+        <v>37507.347051454766</v>
       </c>
       <c r="AE21" s="11">
         <f t="shared" si="16"/>
-        <v>44953.500953598159</v>
+        <v>44953.50095369621</v>
       </c>
       <c r="AF21" s="11">
         <f t="shared" si="17"/>
-        <v>25371.7839722096</v>
+        <v>25371.783972307647</v>
       </c>
       <c r="AG21" s="11">
         <f t="shared" si="18"/>
-        <v>32937.625723736084</v>
+        <v>32937.625723834128</v>
       </c>
       <c r="AH21" s="11">
         <f t="shared" si="19"/>
-        <v>39634.258996028584</v>
+        <v>39634.258996126635</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6308,31 +6302,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V22" s="10">
         <f t="shared" si="8"/>
-        <v>203783.52307940036</v>
+        <v>203783.52308000001</v>
       </c>
       <c r="W22" s="10">
         <f t="shared" si="9"/>
-        <v>246191.52307940036</v>
+        <v>246191.52308000001</v>
       </c>
       <c r="X22" s="10">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="10"/>
-        <v>178391.52307940036</v>
+        <v>178391.52308000001</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="11"/>
-        <v>216539.52307940036</v>
+        <v>216539.52308000001</v>
       </c>
       <c r="AA22" s="10">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB22" s="10">
         <f t="shared" si="13"/>
@@ -6340,27 +6334,27 @@
       </c>
       <c r="AC22" s="11">
         <f t="shared" si="14"/>
-        <v>30291.122202063849</v>
+        <v>30291.122202152983</v>
       </c>
       <c r="AD22" s="11">
         <f t="shared" si="15"/>
-        <v>36594.801179311726</v>
+        <v>36594.801179400856</v>
       </c>
       <c r="AE22" s="11">
         <f t="shared" si="16"/>
-        <v>40866.819048725607</v>
+        <v>40866.819048814745</v>
       </c>
       <c r="AF22" s="11">
         <f t="shared" si="17"/>
-        <v>26516.763199274796</v>
+        <v>26516.76319936393</v>
       </c>
       <c r="AG22" s="11">
         <f t="shared" si="18"/>
-        <v>32187.220321139823</v>
+        <v>32187.220321228957</v>
       </c>
       <c r="AH22" s="11">
         <f t="shared" si="19"/>
-        <v>36031.144541844173</v>
+        <v>36031.14454193331</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6634,7 +6628,7 @@
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
     </row>
-    <row r="36" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -6663,7 +6657,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -6692,7 +6686,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -6721,7 +6715,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -6750,7 +6744,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -6779,7 +6773,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -6808,7 +6802,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -6837,7 +6831,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -6866,7 +6860,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -6895,7 +6889,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -6924,7 +6918,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -7766,7 +7760,7 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>503426.06612425408</v>
+        <v>451295.0492430462</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
@@ -7778,7 +7772,7 @@
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>317045.48553270852</v>
+        <v>392097.48553270852</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
@@ -7786,7 +7780,7 @@
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>521198.06612425408</v>
+        <v>469067.0492430462</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
@@ -7806,7 +7800,7 @@
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>344948.66003777389</v>
+        <v>294072.20615263691</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
@@ -7814,7 +7808,7 @@
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>206085.9800377739</v>
+        <v>203875.19169874041</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -7935,7 +7929,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>154508</v>
+        <v>229560</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8175,7 +8169,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>141508</v>
+        <v>216560</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8245,7 +8239,7 @@
       </c>
       <c r="M11">
         <f>IF(M2-K2&gt;0,M2-K2,0)</f>
-        <v>27307.140545625822</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f>IF(N2-K2&gt;0,N2-K2,0)</f>
@@ -8253,7 +8247,7 @@
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>16032</v>
+        <v>13821.21166096651</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
@@ -8295,14 +8289,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>154894.68</v>
+        <v>104018.22611486301</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>16032</v>
+        <v>13821.21166096651</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
@@ -8391,7 +8385,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>7361.1405456258217</v>
+        <v>-43515.313339511165</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8440,7 +8434,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>138862.68</v>
+        <v>90197.014453896496</v>
       </c>
       <c r="N15">
         <v>0</v>

--- a/tumlknexpectimax/excel_data/input_data_its_munich_rokkas.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_munich_rokkas.xlsx
@@ -793,7 +793,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1277,11 +1276,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="85642240"/>
-        <c:axId val="82517312"/>
+        <c:axId val="172550144"/>
+        <c:axId val="181194688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85642240"/>
+        <c:axId val="172550144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,14 +1302,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82517312"/>
+        <c:crossAx val="181194688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1318,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82517312"/>
+        <c:axId val="181194688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,21 +1339,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85642240"/>
+        <c:crossAx val="172550144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1400,7 +1396,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1884,11 +1879,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="86844928"/>
-        <c:axId val="86771392"/>
+        <c:axId val="172725760"/>
+        <c:axId val="181196416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86844928"/>
+        <c:axId val="172725760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,14 +1905,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86771392"/>
+        <c:crossAx val="181196416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1925,7 +1919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86771392"/>
+        <c:axId val="181196416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,21 +1942,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86844928"/>
+        <c:crossAx val="172725760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2089,46 +2081,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042119999998</c:v>
+                  <c:v>3.4104788257342502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823689999997</c:v>
+                  <c:v>4.3728838415082709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.422050000001</c:v>
+                  <c:v>4.590058257768959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19212.762709999999</c:v>
+                  <c:v>3.5645668399812402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.91869</c:v>
+                  <c:v>3.4895950881818525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.716119999997</c:v>
+                  <c:v>5.0622354699274767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400000002</c:v>
+                  <c:v>5.2097123546059274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169999996</c:v>
+                  <c:v>5.8339957529095674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867709999999</c:v>
+                  <c:v>4.8658194688768006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.872100000001</c:v>
+                  <c:v>3.6204591866240001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.81493</c:v>
+                  <c:v>4.1684192327679996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760000003</c:v>
+                  <c:v>5.7307241761280014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920000001</c:v>
+                  <c:v>4.4817390217599993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,11 +2140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87515136"/>
-        <c:axId val="86773696"/>
+        <c:axId val="172727808"/>
+        <c:axId val="176463872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87515136"/>
+        <c:axId val="172727808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86773696"/>
+        <c:crossAx val="176463872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2170,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86773696"/>
+        <c:axId val="176463872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87515136"/>
+        <c:crossAx val="172727808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,7 +2229,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2265,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2308,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3756,7 +3748,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -3770,12 +3762,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -3795,7 +3787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -3806,7 +3798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -3835,7 +3827,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,7 +3850,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="11">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,7 +3858,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="11">
-        <v>19283.042119999998</v>
+        <v>3.4104788257342502</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,7 +3866,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="11">
-        <v>43709.823689999997</v>
+        <v>4.3728838415082709</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,7 +3874,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="11">
-        <v>44248.422050000001</v>
+        <v>4.590058257768959</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,7 +3882,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="11">
-        <v>19212.762709999999</v>
+        <v>3.5645668399812402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,7 +3890,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="11">
-        <v>11938.91869</v>
+        <v>3.4895950881818525</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3898,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="11">
-        <v>50983.716119999997</v>
+        <v>5.0622354699274767</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3906,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="11">
-        <v>47726.863400000002</v>
+        <v>5.2097123546059274</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +3914,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="11">
-        <v>48220.289169999996</v>
+        <v>5.8339957529095674</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3922,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="11">
-        <v>37682.867709999999</v>
+        <v>4.8658194688768006</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3930,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="11">
-        <v>44827.872100000001</v>
+        <v>3.6204591866240001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3938,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="11">
-        <v>12139.81493</v>
+        <v>4.1684192327679996</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +3946,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="11">
-        <v>47419.574760000003</v>
+        <v>5.7307241761280014</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +3954,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="11">
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
     </row>
   </sheetData>
@@ -4122,31 +4114,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V2" s="10">
         <f>O2-U2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="W2" s="10">
         <f>P2-U2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="X2" s="10">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="Y2" s="10">
         <f>R2-$U2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="Z2" s="10">
         <f>S2-$U2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AA2" s="10">
         <f>T2-$U2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AB2" s="10">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -4154,27 +4146,27 @@
       </c>
       <c r="AC2" s="11">
         <f>V2*AB2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AD2" s="11">
         <f>W2*AB2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AE2" s="11">
         <f>X2*AB2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AF2" s="11">
         <f>Y2*$AB2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AG2" s="11">
         <f>Z2*$AB2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AH2" s="11">
         <f>AA2*$AB2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4224,31 +4216,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V3" s="10">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920000001</v>
+        <v>1711.5182609782401</v>
       </c>
       <c r="W3" s="10">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920000001</v>
+        <v>1795.5182609782401</v>
       </c>
       <c r="X3" s="10">
         <f t="shared" si="1"/>
-        <v>-47652.476920000001</v>
+        <v>2431.5182609782401</v>
       </c>
       <c r="Y3" s="10">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920000001</v>
+        <v>1531.5182609782401</v>
       </c>
       <c r="Z3" s="10">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920000001</v>
+        <v>1603.5182609782401</v>
       </c>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920000001</v>
+        <v>2155.5182609782401</v>
       </c>
       <c r="AB3" s="10">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -4256,27 +4248,27 @@
       </c>
       <c r="AC3" s="11">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018181817</v>
+        <v>1555.9256917984001</v>
       </c>
       <c r="AD3" s="11">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615381818185</v>
+        <v>1632.2893281620363</v>
       </c>
       <c r="AE3" s="11">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433563636361</v>
+        <v>2210.4711463438543</v>
       </c>
       <c r="AF3" s="11">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615381818185</v>
+        <v>1392.2893281620363</v>
       </c>
       <c r="AG3" s="11">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.160836363633</v>
+        <v>1457.7438736165818</v>
       </c>
       <c r="AH3" s="11">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342654545457</v>
+        <v>1959.5620554347636</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4335,31 +4327,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V4" s="10">
         <f t="shared" si="8"/>
-        <v>-47736.476920000001</v>
+        <v>2347.5182609782401</v>
       </c>
       <c r="W4" s="10">
         <f t="shared" si="9"/>
-        <v>-47616.476920000001</v>
+        <v>2467.5182609782401</v>
       </c>
       <c r="X4" s="10">
         <f t="shared" si="1"/>
-        <v>-45444.476920000001</v>
+        <v>4639.5182609782396</v>
       </c>
       <c r="Y4" s="10">
         <f t="shared" si="10"/>
-        <v>-48000.476920000001</v>
+        <v>2083.5182609782401</v>
       </c>
       <c r="Z4" s="10">
         <f t="shared" si="11"/>
-        <v>-47892.476920000001</v>
+        <v>2191.5182609782401</v>
       </c>
       <c r="AA4" s="10">
         <f t="shared" si="12"/>
-        <v>-45936.476920000001</v>
+        <v>4147.5182609782396</v>
       </c>
       <c r="AB4" s="10">
         <f t="shared" si="13"/>
@@ -4367,27 +4359,27 @@
       </c>
       <c r="AC4" s="11">
         <f t="shared" si="14"/>
-        <v>-39451.633818181814</v>
+        <v>1940.0977363456527</v>
       </c>
       <c r="AD4" s="11">
         <f t="shared" si="15"/>
-        <v>-39352.460264462803</v>
+        <v>2039.2712900646609</v>
       </c>
       <c r="AE4" s="11">
         <f t="shared" si="16"/>
-        <v>-37557.418942148754</v>
+        <v>3834.3126123787101</v>
       </c>
       <c r="AF4" s="11">
         <f t="shared" si="17"/>
-        <v>-39669.81563636363</v>
+        <v>1721.9159181638345</v>
       </c>
       <c r="AG4" s="11">
         <f t="shared" si="18"/>
-        <v>-39580.559438016528</v>
+        <v>1811.172116510942</v>
       </c>
       <c r="AH4" s="11">
         <f t="shared" si="19"/>
-        <v>-37964.03051239669</v>
+        <v>3427.7010421307764</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4447,31 +4439,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V5" s="10">
         <f t="shared" si="8"/>
-        <v>-46908.476920000001</v>
+        <v>3175.5182609782401</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="9"/>
-        <v>-46572.476920000001</v>
+        <v>3511.5182609782401</v>
       </c>
       <c r="X5" s="10">
         <f t="shared" si="1"/>
-        <v>-41052.476920000001</v>
+        <v>9031.5182609782405</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="10"/>
-        <v>-47244.476920000001</v>
+        <v>2839.5182609782401</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="11"/>
-        <v>-46932.476920000001</v>
+        <v>3151.5182609782401</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="12"/>
-        <v>-41976.476920000001</v>
+        <v>8107.5182609782396</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="13"/>
@@ -4479,27 +4471,27 @@
       </c>
       <c r="AC5" s="11">
         <f t="shared" si="14"/>
-        <v>-35243.032997746042</v>
+        <v>2385.81387000619</v>
       </c>
       <c r="AD5" s="11">
         <f t="shared" si="15"/>
-        <v>-34990.591224643118</v>
+        <v>2638.2556431091202</v>
       </c>
       <c r="AE5" s="11">
         <f t="shared" si="16"/>
-        <v>-30843.333523666406</v>
+        <v>6785.513344085829</v>
       </c>
       <c r="AF5" s="11">
         <f t="shared" si="17"/>
-        <v>-35495.474770848974</v>
+        <v>2133.3720969032602</v>
       </c>
       <c r="AG5" s="11">
         <f t="shared" si="18"/>
-        <v>-35261.064552967684</v>
+        <v>2367.7823147845525</v>
       </c>
       <c r="AH5" s="11">
         <f t="shared" si="19"/>
-        <v>-31537.548399699466</v>
+        <v>6091.2984680527707</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4559,31 +4551,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V6" s="10">
         <f t="shared" si="8"/>
-        <v>-45744.476920000001</v>
+        <v>4339.5182609782396</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="9"/>
-        <v>-45132.476920000001</v>
+        <v>4951.5182609782396</v>
       </c>
       <c r="X6" s="10">
         <f t="shared" si="1"/>
-        <v>-32556.476920000001</v>
+        <v>17527.518260978239</v>
       </c>
       <c r="Y6" s="10">
         <f t="shared" si="10"/>
-        <v>-46212.476920000001</v>
+        <v>3871.5182609782401</v>
       </c>
       <c r="Z6" s="10">
         <f t="shared" si="11"/>
-        <v>-45648.476920000001</v>
+        <v>4435.5182609782396</v>
       </c>
       <c r="AA6" s="10">
         <f t="shared" si="12"/>
-        <v>-34320.476920000001</v>
+        <v>15763.518260978241</v>
       </c>
       <c r="AB6" s="10">
         <f t="shared" si="13"/>
@@ -4591,27 +4583,27 @@
       </c>
       <c r="AC6" s="11">
         <f t="shared" si="14"/>
-        <v>-31244.093244996919</v>
+        <v>2963.9493620505691</v>
       </c>
       <c r="AD6" s="11">
         <f t="shared" si="15"/>
-        <v>-30826.089010313495</v>
+        <v>3381.9535967339925</v>
       </c>
       <c r="AE6" s="11">
         <f t="shared" si="16"/>
-        <v>-22236.511795642371</v>
+        <v>11971.530811405119</v>
       </c>
       <c r="AF6" s="11">
         <f t="shared" si="17"/>
-        <v>-31563.743542107772</v>
+        <v>2644.2990649397166</v>
       </c>
       <c r="AG6" s="11">
         <f t="shared" si="18"/>
-        <v>-31178.523953281874</v>
+        <v>3029.5186537656159</v>
       </c>
       <c r="AH6" s="11">
         <f t="shared" si="19"/>
-        <v>-23441.347530906354</v>
+        <v>10766.695076141135</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4671,31 +4663,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V7" s="10">
         <f t="shared" si="8"/>
-        <v>-44160.476920000001</v>
+        <v>5923.5182609782396</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="9"/>
-        <v>-43092.476920000001</v>
+        <v>6991.5182609782396</v>
       </c>
       <c r="X7" s="10">
         <f t="shared" si="1"/>
-        <v>-16260.476920000001</v>
+        <v>33823.518260978242</v>
       </c>
       <c r="Y7" s="10">
         <f t="shared" si="10"/>
-        <v>-44760.476920000001</v>
+        <v>5323.5182609782396</v>
       </c>
       <c r="Z7" s="10">
         <f t="shared" si="11"/>
-        <v>-43812.476920000001</v>
+        <v>6271.5182609782396</v>
       </c>
       <c r="AA7" s="10">
         <f t="shared" si="12"/>
-        <v>-19668.476920000001</v>
+        <v>30415.518260978239</v>
       </c>
       <c r="AB7" s="10">
         <f t="shared" si="13"/>
@@ -4703,27 +4695,27 @@
       </c>
       <c r="AC7" s="11">
         <f t="shared" si="14"/>
-        <v>-27420.181756089674</v>
+        <v>3678.038795771673</v>
       </c>
       <c r="AD7" s="11">
         <f t="shared" si="15"/>
-        <v>-26757.037783062497</v>
+        <v>4341.1827687988507</v>
       </c>
       <c r="AE7" s="11">
         <f t="shared" si="16"/>
-        <v>-10096.476842739254</v>
+        <v>21001.743709122096</v>
       </c>
       <c r="AF7" s="11">
         <f t="shared" si="17"/>
-        <v>-27792.734549925168</v>
+        <v>3305.4860019361799</v>
       </c>
       <c r="AG7" s="11">
         <f t="shared" si="18"/>
-        <v>-27204.101135665089</v>
+        <v>3894.119416196259</v>
       </c>
       <c r="AH7" s="11">
         <f t="shared" si="19"/>
-        <v>-12212.576711724852</v>
+        <v>18885.643840136494</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4783,31 +4775,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V8" s="10">
         <f t="shared" si="8"/>
-        <v>-41976.476920000001</v>
+        <v>8107.5182609782396</v>
       </c>
       <c r="W8" s="10">
         <f t="shared" si="9"/>
-        <v>-40176.476920000001</v>
+        <v>9907.5182609782405</v>
       </c>
       <c r="X8" s="10">
         <f t="shared" si="1"/>
-        <v>13643.523079999999</v>
+        <v>63727.518260978242</v>
       </c>
       <c r="Y8" s="10">
         <f t="shared" si="10"/>
-        <v>-42828.476920000001</v>
+        <v>7255.5182609782396</v>
       </c>
       <c r="Z8" s="10">
         <f t="shared" si="11"/>
-        <v>-41172.476920000001</v>
+        <v>8911.5182609782405</v>
       </c>
       <c r="AA8" s="10">
         <f t="shared" si="12"/>
-        <v>7247.523079999999</v>
+        <v>57331.518260978242</v>
       </c>
       <c r="AB8" s="10">
         <f t="shared" si="13"/>
@@ -4815,27 +4807,27 @@
       </c>
       <c r="AC8" s="11">
         <f t="shared" si="14"/>
-        <v>-23694.626896844075</v>
+        <v>4576.4826957571522</v>
       </c>
       <c r="AD8" s="11">
         <f t="shared" si="15"/>
-        <v>-22678.573822747276</v>
+        <v>5592.5357698539519</v>
       </c>
       <c r="AE8" s="11">
         <f t="shared" si="16"/>
-        <v>7701.4130927470142</v>
+        <v>35972.522685348245</v>
       </c>
       <c r="AF8" s="11">
         <f t="shared" si="17"/>
-        <v>-24175.558685249893</v>
+        <v>4095.550907351334</v>
       </c>
       <c r="AG8" s="11">
         <f t="shared" si="18"/>
-        <v>-23240.789857080836</v>
+        <v>5030.3197355203902</v>
       </c>
       <c r="AH8" s="11">
         <f t="shared" si="19"/>
-        <v>4091.0378361230555</v>
+        <v>32362.147428724285</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4894,31 +4886,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V9" s="10">
         <f t="shared" si="8"/>
-        <v>-39000.476920000001</v>
+        <v>11083.518260978241</v>
       </c>
       <c r="W9" s="10">
         <f t="shared" si="9"/>
-        <v>-36072.476920000001</v>
+        <v>14011.518260978241</v>
       </c>
       <c r="X9" s="10">
         <f t="shared" si="1"/>
-        <v>64451.523079999999</v>
+        <v>114535.51826097824</v>
       </c>
       <c r="Y9" s="10">
         <f t="shared" si="10"/>
-        <v>-40128.476920000001</v>
+        <v>9955.5182609782405</v>
       </c>
       <c r="Z9" s="10">
         <f t="shared" si="11"/>
-        <v>-37512.476920000001</v>
+        <v>12571.518260978241</v>
       </c>
       <c r="AA9" s="10">
         <f t="shared" si="12"/>
-        <v>52979.523079999999</v>
+        <v>103063.51826097824</v>
       </c>
       <c r="AB9" s="10">
         <f t="shared" si="13"/>
@@ -4926,27 +4918,27 @@
       </c>
       <c r="AC9" s="11">
         <f t="shared" si="14"/>
-        <v>-20013.411346367298</v>
+        <v>5687.5973741792659</v>
       </c>
       <c r="AD9" s="11">
         <f t="shared" si="15"/>
-        <v>-18510.884376187791</v>
+        <v>7190.1243443587746</v>
       </c>
       <c r="AE9" s="11">
         <f t="shared" si="16"/>
-        <v>33073.822300835745</v>
+        <v>58774.831021382306</v>
       </c>
       <c r="AF9" s="11">
         <f t="shared" si="17"/>
-        <v>-20592.253703731534</v>
+        <v>5108.7550168150292</v>
       </c>
       <c r="AG9" s="11">
         <f t="shared" si="18"/>
-        <v>-19249.832066440009</v>
+        <v>6451.1766541065572</v>
       </c>
       <c r="AH9" s="11">
         <f t="shared" si="19"/>
-        <v>27186.872368493081</v>
+        <v>52887.881089039642</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5005,31 +4997,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V10" s="10">
         <f t="shared" si="8"/>
-        <v>-34944.476920000001</v>
+        <v>15139.518260978241</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="9"/>
-        <v>-30312.476920000001</v>
+        <v>19771.518260978239</v>
       </c>
       <c r="X10" s="10">
         <f t="shared" si="1"/>
-        <v>138143.52308000001</v>
+        <v>188227.51826097825</v>
       </c>
       <c r="Y10" s="10">
         <f t="shared" si="10"/>
-        <v>-36480.476920000001</v>
+        <v>13603.518260978241</v>
       </c>
       <c r="Z10" s="10">
         <f t="shared" si="11"/>
-        <v>-32328.476920000001</v>
+        <v>17755.518260978239</v>
       </c>
       <c r="AA10" s="10">
         <f t="shared" si="12"/>
-        <v>119291.52308</v>
+        <v>169375.51826097825</v>
       </c>
       <c r="AB10" s="10">
         <f t="shared" si="13"/>
@@ -5037,27 +5029,27 @@
       </c>
       <c r="AC10" s="11">
         <f t="shared" si="14"/>
-        <v>-16301.856380748684</v>
+        <v>7062.6970015663737</v>
       </c>
       <c r="AD10" s="11">
         <f t="shared" si="15"/>
-        <v>-14140.994195617201</v>
+        <v>9223.5591866978575</v>
       </c>
       <c r="AE10" s="11">
         <f t="shared" si="16"/>
-        <v>64444.973044993611</v>
+        <v>87809.526427308665</v>
       </c>
       <c r="AF10" s="11">
         <f t="shared" si="17"/>
-        <v>-17018.411716750834</v>
+        <v>6346.1416655642242</v>
       </c>
       <c r="AG10" s="11">
         <f t="shared" si="18"/>
-        <v>-15081.473074120024</v>
+        <v>8283.0803081950344</v>
       </c>
       <c r="AH10" s="11">
         <f t="shared" si="19"/>
-        <v>55650.375913279713</v>
+        <v>79014.929295594775</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5116,31 +5108,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V11" s="10">
         <f t="shared" si="8"/>
-        <v>-29472.476920000001</v>
+        <v>20611.518260978239</v>
       </c>
       <c r="W11" s="10">
         <f t="shared" si="9"/>
-        <v>-22344.476920000001</v>
+        <v>27739.518260978239</v>
       </c>
       <c r="X11" s="10">
         <f t="shared" si="1"/>
-        <v>216887.52308000001</v>
+        <v>266971.51826097822</v>
       </c>
       <c r="Y11" s="10">
         <f t="shared" si="10"/>
-        <v>-31560.476920000001</v>
+        <v>18523.518260978239</v>
       </c>
       <c r="Z11" s="10">
         <f t="shared" si="11"/>
-        <v>-25152.476920000001</v>
+        <v>24931.518260978239</v>
       </c>
       <c r="AA11" s="10">
         <f t="shared" si="12"/>
-        <v>190175.52308000001</v>
+        <v>240259.51826097825</v>
       </c>
       <c r="AB11" s="10">
         <f t="shared" si="13"/>
@@ -5148,27 +5140,27 @@
       </c>
       <c r="AC11" s="11">
         <f t="shared" si="14"/>
-        <v>-12499.207269310022</v>
+        <v>8741.2958055218478</v>
       </c>
       <c r="AD11" s="11">
         <f t="shared" si="15"/>
-        <v>-9476.2394455509511</v>
+        <v>11764.263629280918</v>
       </c>
       <c r="AE11" s="11">
         <f t="shared" si="16"/>
-        <v>91981.481992935311</v>
+        <v>113221.98506776716</v>
       </c>
       <c r="AF11" s="11">
         <f t="shared" si="17"/>
-        <v>-13384.723096471771</v>
+        <v>7855.7799783600994</v>
       </c>
       <c r="AG11" s="11">
         <f t="shared" si="18"/>
-        <v>-10667.105557940889</v>
+        <v>10573.397516890982</v>
       </c>
       <c r="AH11" s="11">
         <f t="shared" si="19"/>
-        <v>80652.98641096949</v>
+        <v>101893.48948580136</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5228,31 +5220,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V12" s="10">
         <f t="shared" si="8"/>
-        <v>-22128.476920000001</v>
+        <v>27955.518260978239</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="9"/>
-        <v>-11508.476920000001</v>
+        <v>38575.518260978242</v>
       </c>
       <c r="X12" s="10">
         <f t="shared" si="1"/>
-        <v>264167.52308000001</v>
+        <v>314251.51826097822</v>
       </c>
       <c r="Y12" s="10">
         <f t="shared" si="10"/>
-        <v>-24960.476920000001</v>
+        <v>25123.518260978239</v>
       </c>
       <c r="Z12" s="10">
         <f t="shared" si="11"/>
-        <v>-15384.476920000001</v>
+        <v>34699.518260978242</v>
       </c>
       <c r="AA12" s="10">
         <f t="shared" si="12"/>
-        <v>232727.52308000001</v>
+        <v>282811.51826097822</v>
       </c>
       <c r="AB12" s="10">
         <f t="shared" si="13"/>
@@ -5260,27 +5252,27 @@
       </c>
       <c r="AC12" s="11">
         <f t="shared" si="14"/>
-        <v>-8531.4857818022683</v>
+        <v>10778.062468044885</v>
       </c>
       <c r="AD12" s="11">
         <f t="shared" si="15"/>
-        <v>-4437.0160480606437</v>
+        <v>14872.532201786511</v>
       </c>
       <c r="AE12" s="11">
         <f t="shared" si="16"/>
-        <v>101848.01580871489</v>
+        <v>121157.56405856203</v>
       </c>
       <c r="AF12" s="11">
         <f t="shared" si="17"/>
-        <v>-9623.3443774667012</v>
+        <v>9686.2038723804526</v>
       </c>
       <c r="AG12" s="11">
         <f t="shared" si="18"/>
-        <v>-5931.3818378895076</v>
+        <v>13378.166411957647</v>
       </c>
       <c r="AH12" s="11">
         <f t="shared" si="19"/>
-        <v>89726.534789050405</v>
+        <v>109036.08303889756</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5339,31 +5331,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V13" s="10">
         <f t="shared" si="8"/>
-        <v>-12480.476920000001</v>
+        <v>37603.518260978242</v>
       </c>
       <c r="W13" s="10">
         <f t="shared" si="9"/>
-        <v>3083.523079999999</v>
+        <v>53167.518260978242</v>
       </c>
       <c r="X13" s="10">
         <f t="shared" si="1"/>
-        <v>274307.52308000001</v>
+        <v>324391.51826097822</v>
       </c>
       <c r="Y13" s="10">
         <f t="shared" si="10"/>
-        <v>-16272.476920000001</v>
+        <v>33811.518260978242</v>
       </c>
       <c r="Z13" s="10">
         <f t="shared" si="11"/>
-        <v>-2268.476920000001</v>
+        <v>47815.518260978242</v>
       </c>
       <c r="AA13" s="10">
         <f t="shared" si="12"/>
-        <v>241859.52308000001</v>
+        <v>291943.51826097822</v>
       </c>
       <c r="AB13" s="10">
         <f t="shared" si="13"/>
@@ -5371,27 +5363,27 @@
       </c>
       <c r="AC13" s="11">
         <f t="shared" si="14"/>
-        <v>-4374.3310230783154</v>
+        <v>13179.803749510003</v>
       </c>
       <c r="AD13" s="11">
         <f t="shared" si="15"/>
-        <v>1080.7560284500726</v>
+        <v>18634.890801038393</v>
       </c>
       <c r="AE13" s="11">
         <f t="shared" si="16"/>
-        <v>96143.113421391201</v>
+        <v>113697.2481939795</v>
       </c>
       <c r="AF13" s="11">
         <f t="shared" si="17"/>
-        <v>-5703.403889911755</v>
+        <v>11850.730882676566</v>
       </c>
       <c r="AG13" s="11">
         <f t="shared" si="18"/>
-        <v>-795.08732157433849</v>
+        <v>16759.047451013983</v>
       </c>
       <c r="AH13" s="11">
         <f t="shared" si="19"/>
-        <v>84770.287371018989</v>
+        <v>102324.42214360728</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5450,31 +5442,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V14" s="10">
         <f t="shared" si="8"/>
-        <v>143.52307999999903</v>
+        <v>50227.518260978242</v>
       </c>
       <c r="W14" s="10">
         <f t="shared" si="9"/>
-        <v>22127.523079999999</v>
+        <v>72211.518260978235</v>
       </c>
       <c r="X14" s="10">
         <f t="shared" si="1"/>
-        <v>274763.52308000001</v>
+        <v>324847.51826097822</v>
       </c>
       <c r="Y14" s="10">
         <f t="shared" si="10"/>
-        <v>-4896.476920000001</v>
+        <v>45187.518260978242</v>
       </c>
       <c r="Z14" s="10">
         <f t="shared" si="11"/>
-        <v>14891.523079999999</v>
+        <v>64975.518260978242</v>
       </c>
       <c r="AA14" s="10">
         <f t="shared" si="12"/>
-        <v>242243.52308000001</v>
+        <v>292327.51826097822</v>
       </c>
       <c r="AB14" s="10">
         <f t="shared" si="13"/>
@@ -5482,27 +5474,27 @@
       </c>
       <c r="AC14" s="11">
         <f t="shared" si="14"/>
-        <v>45.730876340708612</v>
+        <v>16004.035215057364</v>
       </c>
       <c r="AD14" s="11">
         <f t="shared" si="15"/>
-        <v>7050.5107728851872</v>
+        <v>23008.815111601842</v>
       </c>
       <c r="AE14" s="11">
         <f t="shared" si="16"/>
-        <v>87548.126035958834</v>
+        <v>103506.43037467547</v>
       </c>
       <c r="AF14" s="11">
         <f t="shared" si="17"/>
-        <v>-1560.1684449194884</v>
+        <v>14398.135893797167</v>
       </c>
       <c r="AG14" s="11">
         <f t="shared" si="18"/>
-        <v>4744.8981759330472</v>
+        <v>20703.202514649704</v>
       </c>
       <c r="AH14" s="11">
         <f t="shared" si="19"/>
-        <v>77186.251844018043</v>
+        <v>93144.556182734683</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5561,31 +5553,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V15" s="10">
         <f t="shared" si="8"/>
-        <v>16223.523079999999</v>
+        <v>66307.518260978235</v>
       </c>
       <c r="W15" s="10">
         <f t="shared" si="9"/>
-        <v>46247.523079999999</v>
+        <v>96331.518260978235</v>
       </c>
       <c r="X15" s="10">
         <f t="shared" si="1"/>
-        <v>274847.52308000001</v>
+        <v>324931.51826097822</v>
       </c>
       <c r="Y15" s="10">
         <f t="shared" si="10"/>
-        <v>9587.523079999999</v>
+        <v>59671.518260978242</v>
       </c>
       <c r="Z15" s="10">
         <f t="shared" si="11"/>
-        <v>36587.523079999999</v>
+        <v>86671.518260978235</v>
       </c>
       <c r="AA15" s="10">
         <f t="shared" si="12"/>
-        <v>242327.52308000001</v>
+        <v>292411.51826097822</v>
       </c>
       <c r="AB15" s="10">
         <f t="shared" si="13"/>
@@ -5593,27 +5585,27 @@
       </c>
       <c r="AC15" s="11">
         <f t="shared" si="14"/>
-        <v>4699.3767501120383</v>
+        <v>19206.92614894536</v>
       </c>
       <c r="AD15" s="11">
         <f t="shared" si="15"/>
-        <v>13396.260087326353</v>
+        <v>27903.809486159673</v>
       </c>
       <c r="AE15" s="11">
         <f t="shared" si="16"/>
-        <v>79613.537295133181</v>
+        <v>94121.086693966499</v>
       </c>
       <c r="AF15" s="11">
         <f t="shared" si="17"/>
-        <v>2777.1639261793784</v>
+        <v>17284.713325012701</v>
       </c>
       <c r="AG15" s="11">
         <f t="shared" si="18"/>
-        <v>10598.102179069949</v>
+        <v>25105.651577903271</v>
       </c>
       <c r="AH15" s="11">
         <f t="shared" si="19"/>
-        <v>70193.651666096106</v>
+        <v>84701.20106492941</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5672,31 +5664,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V16" s="10">
         <f t="shared" si="8"/>
-        <v>36215.523079999999</v>
+        <v>86299.518260978235</v>
       </c>
       <c r="W16" s="10">
         <f t="shared" si="9"/>
-        <v>75275.523079999999</v>
+        <v>125359.51826097824</v>
       </c>
       <c r="X16" s="10">
         <f t="shared" si="1"/>
-        <v>274883.52308000001</v>
+        <v>324967.51826097822</v>
       </c>
       <c r="Y16" s="10">
         <f t="shared" si="10"/>
-        <v>27551.523079999999</v>
+        <v>77635.518260978235</v>
       </c>
       <c r="Z16" s="10">
         <f t="shared" si="11"/>
-        <v>62699.523079999999</v>
+        <v>112783.51826097824</v>
       </c>
       <c r="AA16" s="10">
         <f t="shared" si="12"/>
-        <v>242351.52308000001</v>
+        <v>292435.51826097822</v>
       </c>
       <c r="AB16" s="10">
         <f t="shared" si="13"/>
@@ -5704,27 +5696,27 @@
       </c>
       <c r="AC16" s="11">
         <f t="shared" si="14"/>
-        <v>9536.6791180071796</v>
+        <v>22725.360389673831</v>
       </c>
       <c r="AD16" s="11">
         <f t="shared" si="15"/>
-        <v>19822.397911202654</v>
+        <v>33011.079182869304</v>
       </c>
       <c r="AE16" s="11">
         <f t="shared" si="16"/>
-        <v>72385.42292073062</v>
+        <v>85574.104192397266</v>
       </c>
       <c r="AF16" s="11">
         <f t="shared" si="17"/>
-        <v>7255.1771306993051</v>
+        <v>20443.858402365957</v>
       </c>
       <c r="AG16" s="11">
         <f t="shared" si="18"/>
-        <v>16510.744057049396</v>
+        <v>29699.425328716046</v>
       </c>
       <c r="AH16" s="11">
         <f t="shared" si="19"/>
-        <v>63818.730555645234</v>
+        <v>77007.41182731188</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5783,31 +5775,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="8"/>
-        <v>60251.523079999999</v>
+        <v>110335.51826097824</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="9"/>
-        <v>108299.52308</v>
+        <v>158383.51826097825</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="1"/>
-        <v>274907.52308000001</v>
+        <v>324991.51826097822</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="10"/>
-        <v>49187.523079999999</v>
+        <v>99271.518260978235</v>
       </c>
       <c r="Z17" s="10">
         <f t="shared" si="11"/>
-        <v>92459.523079999999</v>
+        <v>142543.51826097825</v>
       </c>
       <c r="AA17" s="10">
         <f t="shared" si="12"/>
-        <v>242375.52308000001</v>
+        <v>292459.51826097822</v>
       </c>
       <c r="AB17" s="10">
         <f t="shared" si="13"/>
@@ -5815,27 +5807,27 @@
       </c>
       <c r="AC17" s="11">
         <f t="shared" si="14"/>
-        <v>14423.735587734647</v>
+        <v>26413.445834704329</v>
       </c>
       <c r="AD17" s="11">
         <f t="shared" si="15"/>
-        <v>25926.044775824208</v>
+        <v>37915.755022793899</v>
       </c>
       <c r="AE17" s="11">
         <f t="shared" si="16"/>
-        <v>65810.675337121793</v>
+        <v>77800.385584091462</v>
       </c>
       <c r="AF17" s="11">
         <f t="shared" si="17"/>
-        <v>11775.101953514224</v>
+        <v>23764.812200483906</v>
       </c>
       <c r="AG17" s="11">
         <f t="shared" si="18"/>
-        <v>22134.074713816663</v>
+        <v>34123.784960786346</v>
       </c>
       <c r="AH17" s="11">
         <f t="shared" si="19"/>
-        <v>58022.773187044164</v>
+        <v>70012.483434013833</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5894,31 +5886,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="8"/>
-        <v>87899.523079999999</v>
+        <v>137983.51826097825</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="9"/>
-        <v>143159.52308000001</v>
+        <v>193243.51826097825</v>
       </c>
       <c r="X18" s="10">
         <f t="shared" si="1"/>
-        <v>274919.52308000001</v>
+        <v>325003.51826097822</v>
       </c>
       <c r="Y18" s="10">
         <f t="shared" si="10"/>
-        <v>74075.523079999999</v>
+        <v>124159.51826097824</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" si="11"/>
-        <v>123827.52308</v>
+        <v>173911.51826097825</v>
       </c>
       <c r="AA18" s="10">
         <f t="shared" si="12"/>
-        <v>242387.52308000001</v>
+        <v>292471.51826097822</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" si="13"/>
@@ -5926,27 +5918,27 @@
       </c>
       <c r="AC18" s="11">
         <f t="shared" si="14"/>
-        <v>19129.497244266615</v>
+        <v>30029.233832420876</v>
       </c>
       <c r="AD18" s="11">
         <f t="shared" si="15"/>
-        <v>31155.683288030225</v>
+        <v>42055.419876184482</v>
       </c>
       <c r="AE18" s="11">
         <f t="shared" si="16"/>
-        <v>59830.498219740199</v>
+        <v>70730.234807894449</v>
       </c>
       <c r="AF18" s="11">
         <f t="shared" si="17"/>
-        <v>16120.992071103601</v>
+        <v>27020.72865925786</v>
       </c>
       <c r="AG18" s="11">
         <f t="shared" si="18"/>
-        <v>26948.476834935071</v>
+        <v>37848.213423089328</v>
       </c>
       <c r="AH18" s="11">
         <f t="shared" si="19"/>
-        <v>52750.587174215085</v>
+        <v>63650.323762369335</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5996,31 +5988,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V19" s="10">
         <f t="shared" si="8"/>
-        <v>117983.52308</v>
+        <v>168067.51826097825</v>
       </c>
       <c r="W19" s="10">
         <f t="shared" si="9"/>
-        <v>176759.52308000001</v>
+        <v>226843.51826097825</v>
       </c>
       <c r="X19" s="10">
         <f t="shared" si="1"/>
-        <v>274931.52308000001</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y19" s="10">
         <f t="shared" si="10"/>
-        <v>101171.52308</v>
+        <v>151255.51826097825</v>
       </c>
       <c r="Z19" s="10">
         <f t="shared" si="11"/>
-        <v>154031.52308000001</v>
+        <v>204115.51826097825</v>
       </c>
       <c r="AA19" s="10">
         <f t="shared" si="12"/>
-        <v>242399.52308000001</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB19" s="10">
         <f t="shared" si="13"/>
@@ -6028,27 +6020,27 @@
       </c>
       <c r="AC19" s="11">
         <f t="shared" si="14"/>
-        <v>23342.411059434038</v>
+        <v>33251.262503210637</v>
       </c>
       <c r="AD19" s="11">
         <f t="shared" si="15"/>
-        <v>34970.929318708375</v>
+        <v>44879.780762484974</v>
       </c>
       <c r="AE19" s="11">
         <f t="shared" si="16"/>
-        <v>54393.73615397243</v>
+        <v>64302.587597749021</v>
       </c>
       <c r="AF19" s="11">
         <f t="shared" si="17"/>
-        <v>20016.246485884967</v>
+        <v>29925.09792966157</v>
       </c>
       <c r="AG19" s="11">
         <f t="shared" si="18"/>
-        <v>30474.315683946108</v>
+        <v>40383.167127722707</v>
       </c>
       <c r="AH19" s="11">
         <f t="shared" si="19"/>
-        <v>47957.453385313238</v>
+        <v>57866.30482908983</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6098,31 +6090,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V20" s="10">
         <f t="shared" si="8"/>
-        <v>148739.52308000001</v>
+        <v>198823.51826097825</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="9"/>
-        <v>206135.52308000001</v>
+        <v>256219.51826097825</v>
       </c>
       <c r="X20" s="10">
         <f t="shared" si="1"/>
-        <v>274931.52308000001</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y20" s="10">
         <f t="shared" si="10"/>
-        <v>128843.52308</v>
+        <v>178927.51826097825</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="11"/>
-        <v>180479.52308000001</v>
+        <v>230563.51826097825</v>
       </c>
       <c r="AA20" s="10">
         <f t="shared" si="12"/>
-        <v>242399.52308000001</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB20" s="10">
         <f t="shared" si="13"/>
@@ -6130,27 +6122,27 @@
       </c>
       <c r="AC20" s="11">
         <f t="shared" si="14"/>
-        <v>26752.110632842356</v>
+        <v>35760.157399911986</v>
       </c>
       <c r="AD20" s="11">
         <f t="shared" si="15"/>
-        <v>37075.285738471583</v>
+        <v>46083.332505541213</v>
       </c>
       <c r="AE20" s="11">
         <f t="shared" si="16"/>
-        <v>49448.851049065845</v>
+        <v>58456.897816135468</v>
       </c>
       <c r="AF20" s="11">
         <f t="shared" si="17"/>
-        <v>23173.640148808638</v>
+        <v>32181.686915878276</v>
       </c>
       <c r="AG20" s="11">
         <f t="shared" si="18"/>
-        <v>32460.828624560796</v>
+        <v>41468.875391630427</v>
       </c>
       <c r="AH20" s="11">
         <f t="shared" si="19"/>
-        <v>43597.684895739309</v>
+        <v>52605.731662808932</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6200,31 +6192,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V21" s="10">
         <f t="shared" si="8"/>
-        <v>177995.52308000001</v>
+        <v>228079.51826097825</v>
       </c>
       <c r="W21" s="10">
         <f t="shared" si="9"/>
-        <v>229391.52308000001</v>
+        <v>279475.51826097822</v>
       </c>
       <c r="X21" s="10">
         <f t="shared" si="1"/>
-        <v>274931.52308000001</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y21" s="10">
         <f t="shared" si="10"/>
-        <v>155171.52308000001</v>
+        <v>205255.51826097825</v>
       </c>
       <c r="Z21" s="10">
         <f t="shared" si="11"/>
-        <v>201443.52308000001</v>
+        <v>251527.51826097825</v>
       </c>
       <c r="AA21" s="10">
         <f t="shared" si="12"/>
-        <v>242399.52308000001</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB21" s="10">
         <f t="shared" si="13"/>
@@ -6232,27 +6224,27 @@
       </c>
       <c r="AC21" s="11">
         <f t="shared" si="14"/>
-        <v>29103.690354933002</v>
+        <v>37292.823779541759</v>
       </c>
       <c r="AD21" s="11">
         <f t="shared" si="15"/>
-        <v>37507.347051454766</v>
+        <v>45696.480476063516</v>
       </c>
       <c r="AE21" s="11">
         <f t="shared" si="16"/>
-        <v>44953.50095369621</v>
+        <v>53142.63437830496</v>
       </c>
       <c r="AF21" s="11">
         <f t="shared" si="17"/>
-        <v>25371.783972307647</v>
+        <v>33560.917396916404</v>
       </c>
       <c r="AG21" s="11">
         <f t="shared" si="18"/>
-        <v>32937.625723834128</v>
+        <v>41126.759148442885</v>
       </c>
       <c r="AH21" s="11">
         <f t="shared" si="19"/>
-        <v>39634.258996126635</v>
+        <v>47823.392420735385</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6302,31 +6294,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V22" s="10">
         <f t="shared" si="8"/>
-        <v>203783.52308000001</v>
+        <v>253867.51826097825</v>
       </c>
       <c r="W22" s="10">
         <f t="shared" si="9"/>
-        <v>246191.52308000001</v>
+        <v>296275.51826097822</v>
       </c>
       <c r="X22" s="10">
         <f t="shared" si="1"/>
-        <v>274931.52308000001</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="10"/>
-        <v>178391.52308000001</v>
+        <v>228475.51826097825</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="11"/>
-        <v>216539.52308000001</v>
+        <v>266623.51826097822</v>
       </c>
       <c r="AA22" s="10">
         <f t="shared" si="12"/>
-        <v>242399.52308000001</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB22" s="10">
         <f t="shared" si="13"/>
@@ -6334,27 +6326,27 @@
       </c>
       <c r="AC22" s="11">
         <f t="shared" si="14"/>
-        <v>30291.122202152983</v>
+        <v>37735.788951797309</v>
       </c>
       <c r="AD22" s="11">
         <f t="shared" si="15"/>
-        <v>36594.801179400856</v>
+        <v>44039.467929045182</v>
       </c>
       <c r="AE22" s="11">
         <f t="shared" si="16"/>
-        <v>40866.819048814745</v>
+        <v>48311.485798459064</v>
       </c>
       <c r="AF22" s="11">
         <f t="shared" si="17"/>
-        <v>26516.76319936393</v>
+        <v>33961.429949008256</v>
       </c>
       <c r="AG22" s="11">
         <f t="shared" si="18"/>
-        <v>32187.220321228957</v>
+        <v>39631.887070873279</v>
       </c>
       <c r="AH22" s="11">
         <f t="shared" si="19"/>
-        <v>36031.14454193331</v>
+        <v>43475.811291577629</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
